--- a/excel_files/9.1.2.xlsx
+++ b/excel_files/9.1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Воздушный транспорт, тыс. тонн</t>
   </si>
@@ -327,10 +327,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -513,7 +514,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,15 +523,9 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -542,9 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,9 +563,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -607,9 +596,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -618,6 +604,39 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -943,11 +962,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -957,500 +974,773 @@
     <col min="9" max="9" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="28" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="26">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="26">
         <v>2010</v>
       </c>
-      <c r="E3" s="30">
+      <c r="H3" s="26">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="26">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="26">
+        <v>2013</v>
+      </c>
+      <c r="K3" s="26">
         <v>2014</v>
       </c>
-      <c r="F3" s="30">
+      <c r="L3" s="26">
         <v>2015</v>
       </c>
-      <c r="G3" s="30">
+      <c r="M3" s="26">
         <v>2016</v>
       </c>
-      <c r="H3" s="30">
+      <c r="N3" s="26">
         <v>2017</v>
       </c>
-      <c r="I3" s="30">
+      <c r="O3" s="26">
         <v>2018</v>
       </c>
-      <c r="J3" s="30">
+      <c r="P3" s="26">
         <v>2019</v>
       </c>
-      <c r="K3" s="30">
+      <c r="Q3" s="26">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="38.25">
-      <c r="A4" s="25" t="s">
+      <c r="R3" s="26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="38.25">
+      <c r="A4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="27">
+        <v>7037.4</v>
+      </c>
+      <c r="E4" s="27">
+        <v>7541</v>
+      </c>
+      <c r="F4" s="27">
+        <v>7834.7</v>
+      </c>
+      <c r="G4" s="27">
         <v>8122.4</v>
       </c>
-      <c r="E4" s="31">
+      <c r="H4" s="27">
+        <v>8862.6</v>
+      </c>
+      <c r="I4" s="27">
+        <v>9620.7000000000007</v>
+      </c>
+      <c r="J4" s="32">
+        <v>10378.1</v>
+      </c>
+      <c r="K4" s="33">
         <v>10776.8</v>
       </c>
-      <c r="F4" s="31">
+      <c r="L4" s="33">
         <v>11012.5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="M4" s="33">
         <v>11333.6</v>
       </c>
-      <c r="H4" s="31">
+      <c r="N4" s="33">
         <v>12279.3</v>
       </c>
-      <c r="I4" s="31">
+      <c r="O4" s="33">
         <v>12516.2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="P4" s="33">
         <v>13135.1</v>
       </c>
-      <c r="K4" s="31">
-        <v>7381.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="32" t="s">
+      <c r="Q4" s="33">
+        <v>7141.6</v>
+      </c>
+      <c r="R4" s="33">
+        <v>9090.7000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="34">
+        <v>59.9</v>
+      </c>
+      <c r="E5" s="34">
+        <v>90.2</v>
+      </c>
+      <c r="F5" s="34">
+        <v>106.1</v>
+      </c>
+      <c r="G5" s="34">
         <v>98.7</v>
       </c>
-      <c r="E5" s="33">
+      <c r="H5" s="34">
+        <v>82.8</v>
+      </c>
+      <c r="I5" s="34">
+        <v>75.8</v>
+      </c>
+      <c r="J5" s="34">
+        <v>55.5</v>
+      </c>
+      <c r="K5" s="35">
         <v>42.9</v>
       </c>
-      <c r="F5" s="33">
+      <c r="L5" s="35">
         <v>40.799999999999997</v>
       </c>
-      <c r="G5" s="33">
+      <c r="M5" s="35">
         <v>40.799999999999997</v>
       </c>
-      <c r="H5" s="33">
+      <c r="N5" s="35">
         <v>43.4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="O5" s="35">
         <v>35</v>
       </c>
-      <c r="J5" s="33">
+      <c r="P5" s="35">
         <v>37.1</v>
       </c>
-      <c r="K5" s="33">
+      <c r="Q5" s="35">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="32" t="s">
+      <c r="R5" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
+        <v>6162.6</v>
+      </c>
+      <c r="E6" s="34">
+        <v>6508.6</v>
+      </c>
+      <c r="F6" s="34">
+        <v>6806.8</v>
+      </c>
+      <c r="G6" s="34">
         <v>6810</v>
       </c>
-      <c r="E6" s="33">
+      <c r="H6" s="34">
+        <v>6925.5</v>
+      </c>
+      <c r="I6" s="34">
+        <v>7466.2</v>
+      </c>
+      <c r="J6" s="34">
+        <v>7717.7</v>
+      </c>
+      <c r="K6" s="35">
         <v>8000</v>
       </c>
-      <c r="F6" s="33">
+      <c r="L6" s="35">
         <v>8410.4</v>
       </c>
-      <c r="G6" s="33">
+      <c r="M6" s="35">
         <v>8839.2999999999993</v>
       </c>
-      <c r="H6" s="33">
+      <c r="N6" s="35">
         <v>8931.5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="O6" s="35">
         <v>9305.6</v>
       </c>
-      <c r="J6" s="33">
+      <c r="P6" s="35">
         <v>10490.2</v>
       </c>
-      <c r="K6" s="33">
-        <v>6035.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="32" t="s">
+      <c r="Q6" s="35">
+        <v>5795.4</v>
+      </c>
+      <c r="R6" s="35">
+        <v>7066.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="34">
+        <v>101.3</v>
+      </c>
+      <c r="E7" s="34">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F7" s="34">
+        <v>84.9</v>
+      </c>
+      <c r="G7" s="34">
         <v>100.9</v>
       </c>
-      <c r="E7" s="33">
+      <c r="H7" s="34">
+        <v>97.7</v>
+      </c>
+      <c r="I7" s="34">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J7" s="34">
+        <v>77.8</v>
+      </c>
+      <c r="K7" s="35">
         <v>82.5</v>
       </c>
-      <c r="F7" s="33">
+      <c r="L7" s="35">
         <v>95.6</v>
       </c>
-      <c r="G7" s="33">
+      <c r="M7" s="35">
         <v>106.1</v>
       </c>
-      <c r="H7" s="33">
+      <c r="N7" s="35">
         <v>120.1</v>
       </c>
-      <c r="I7" s="33">
+      <c r="O7" s="35">
         <v>137.1</v>
       </c>
-      <c r="J7" s="33">
+      <c r="P7" s="35">
         <v>148.80000000000001</v>
       </c>
-      <c r="K7" s="33">
+      <c r="Q7" s="35">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="32" t="s">
+      <c r="R7" s="35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="34">
+        <v>204.3</v>
+      </c>
+      <c r="E8" s="34">
+        <v>235.8</v>
+      </c>
+      <c r="F8" s="34">
+        <v>265</v>
+      </c>
+      <c r="G8" s="34">
         <v>298.60000000000002</v>
       </c>
-      <c r="E8" s="33">
+      <c r="H8" s="34">
+        <v>356.2</v>
+      </c>
+      <c r="I8" s="34">
+        <v>397.2</v>
+      </c>
+      <c r="J8" s="34">
+        <v>427.7</v>
+      </c>
+      <c r="K8" s="35">
         <v>471.4</v>
       </c>
-      <c r="F8" s="33">
+      <c r="L8" s="35">
         <v>499.6</v>
       </c>
-      <c r="G8" s="33">
+      <c r="M8" s="35">
         <v>546</v>
       </c>
-      <c r="H8" s="33">
+      <c r="N8" s="35">
         <v>569.1</v>
       </c>
-      <c r="I8" s="33">
+      <c r="O8" s="35">
         <v>642.4</v>
       </c>
-      <c r="J8" s="33">
+      <c r="P8" s="35">
         <v>752</v>
       </c>
-      <c r="K8" s="33">
+      <c r="Q8" s="35">
         <v>712.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="32" t="s">
+      <c r="R8" s="35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="34">
+        <v>509.3</v>
+      </c>
+      <c r="E9" s="34">
+        <v>635.29999999999995</v>
+      </c>
+      <c r="F9" s="34">
+        <v>571.9</v>
+      </c>
+      <c r="G9" s="34">
         <v>814.2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="H9" s="34">
+        <v>1400.4</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1601.6</v>
+      </c>
+      <c r="J9" s="34">
+        <v>2099.4</v>
+      </c>
+      <c r="K9" s="35">
         <v>2180</v>
       </c>
-      <c r="F9" s="33">
+      <c r="L9" s="35">
         <v>1966.1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="M9" s="35">
         <v>1801.4</v>
       </c>
-      <c r="H9" s="33">
+      <c r="N9" s="35">
         <v>2615.1999999999998</v>
       </c>
-      <c r="I9" s="33">
+      <c r="O9" s="35">
         <v>2396.1</v>
       </c>
-      <c r="J9" s="33">
+      <c r="P9" s="35">
         <v>1707</v>
       </c>
-      <c r="K9" s="33">
+      <c r="Q9" s="35">
         <v>537.70000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="R9" s="35">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="3">
+        <v>2021.6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2338.3000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2140.6999999999998</v>
+      </c>
+      <c r="G10" s="3">
         <v>2178.1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
+        <v>2360.4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2604.4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2662.3</v>
+      </c>
+      <c r="K10" s="36">
         <v>2497.1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="L10" s="36">
         <v>2525.1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="M10" s="36">
         <v>2466.4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="N10" s="36">
         <v>2641</v>
       </c>
-      <c r="I10" s="3">
+      <c r="O10" s="36">
         <v>2777.3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P10" s="36">
         <v>2913.6</v>
       </c>
-      <c r="K10" s="3">
-        <v>2434.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="19" t="s">
+      <c r="Q10" s="36">
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="R10" s="36">
+        <v>2620.1999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1">
+      <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="37">
+        <v>848.9</v>
+      </c>
+      <c r="E11" s="37">
+        <v>945.5</v>
+      </c>
+      <c r="F11" s="37">
+        <v>744.5</v>
+      </c>
+      <c r="G11" s="37">
         <v>737.7</v>
       </c>
-      <c r="E11" s="4">
+      <c r="H11" s="37">
+        <v>798.3</v>
+      </c>
+      <c r="I11" s="37">
+        <v>922.7</v>
+      </c>
+      <c r="J11" s="37">
+        <v>1001.7</v>
+      </c>
+      <c r="K11" s="38">
         <v>1010</v>
       </c>
-      <c r="F11" s="4">
+      <c r="L11" s="38">
         <v>917.8</v>
       </c>
-      <c r="G11" s="4">
+      <c r="M11" s="38">
         <v>807</v>
       </c>
-      <c r="H11" s="2">
+      <c r="N11" s="38">
         <v>937.3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="O11" s="38">
         <v>950.7</v>
       </c>
-      <c r="J11" s="2">
+      <c r="P11" s="38">
         <v>870.4</v>
       </c>
-      <c r="K11" s="2">
+      <c r="Q11" s="38">
         <v>937.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1">
-      <c r="A12" s="19" t="s">
+      <c r="R11" s="38">
+        <v>1003.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="37">
+        <v>902.5</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1113.9000000000001</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1256.4000000000001</v>
+      </c>
+      <c r="G12" s="37">
         <v>1281.5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="H12" s="37">
+        <v>1302.8</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1371.5</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1392</v>
+      </c>
+      <c r="K12" s="38">
         <v>1264.7</v>
       </c>
-      <c r="F12" s="4">
+      <c r="L12" s="38">
         <v>1401.7</v>
       </c>
-      <c r="G12" s="4">
+      <c r="M12" s="38">
         <v>1501.3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="N12" s="38">
         <v>1527.1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="O12" s="38">
         <v>1624</v>
       </c>
-      <c r="J12" s="2">
+      <c r="P12" s="38">
         <v>1841.9</v>
       </c>
-      <c r="K12" s="2">
-        <v>1281.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1">
-      <c r="A13" s="19" t="s">
+      <c r="Q12" s="38">
+        <v>1275.4000000000001</v>
+      </c>
+      <c r="R12" s="38">
+        <v>1348.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="39">
+        <v>218.3</v>
+      </c>
+      <c r="E13" s="39">
+        <v>211.5</v>
+      </c>
+      <c r="F13" s="39">
+        <v>90</v>
+      </c>
+      <c r="G13" s="39">
         <v>91.5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="H13" s="39">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="I13" s="39">
+        <v>208.8</v>
+      </c>
+      <c r="J13" s="39">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="K13" s="38">
         <v>135.19999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="L13" s="38">
         <v>145.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="M13" s="38">
         <v>140.69999999999999</v>
       </c>
-      <c r="H13" s="2">
+      <c r="N13" s="38">
         <v>163.5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="O13" s="38">
         <v>192.8</v>
       </c>
-      <c r="J13" s="2">
+      <c r="P13" s="38">
         <v>192.8</v>
       </c>
-      <c r="K13" s="2">
+      <c r="Q13" s="38">
         <v>208.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1">
-      <c r="A14" s="20" t="s">
+      <c r="R13" s="38">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="E14" s="37">
+        <v>8</v>
+      </c>
+      <c r="F14" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G14" s="37">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="H14" s="37">
+        <v>2</v>
+      </c>
+      <c r="I14" s="37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J14" s="37">
+        <v>2</v>
+      </c>
+      <c r="K14" s="38">
         <v>2.8</v>
       </c>
-      <c r="F14" s="4">
+      <c r="L14" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="M14" s="38">
         <v>0.5</v>
       </c>
-      <c r="H14" s="21">
+      <c r="N14" s="40">
         <v>0</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="O14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="P14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="Q14" s="40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A15" s="22" t="s">
+      <c r="R14" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="41">
+        <v>47.1</v>
+      </c>
+      <c r="E15" s="41">
+        <v>59.4</v>
+      </c>
+      <c r="F15" s="41">
+        <v>45.4</v>
+      </c>
+      <c r="G15" s="41">
         <v>64.400000000000006</v>
       </c>
-      <c r="E15" s="11">
+      <c r="H15" s="41">
+        <v>111</v>
+      </c>
+      <c r="I15" s="41">
+        <v>99.2</v>
+      </c>
+      <c r="J15" s="41">
+        <v>109.9</v>
+      </c>
+      <c r="K15" s="42">
         <v>83.4</v>
       </c>
-      <c r="F15" s="11">
+      <c r="L15" s="42">
         <v>57.4</v>
       </c>
-      <c r="G15" s="11">
+      <c r="M15" s="42">
         <v>16.899999999999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="N15" s="42">
         <v>13.1</v>
       </c>
-      <c r="I15" s="6">
+      <c r="O15" s="42">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J15" s="6">
+      <c r="P15" s="42">
         <v>8.5</v>
       </c>
-      <c r="K15" s="6">
+      <c r="Q15" s="42">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
+      <c r="R15" s="42">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1458,48 +1748,48 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/9.1.2.xlsx
+++ b/excel_files/9.1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Воздушный транспорт, тыс. тонн</t>
   </si>
@@ -321,6 +321,15 @@
       </rPr>
       <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>2 756,0</t>
+  </si>
+  <si>
+    <t>1 013,8</t>
+  </si>
+  <si>
+    <t>1 451,1</t>
   </si>
 </sst>
 </file>
@@ -962,9 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -974,7 +985,7 @@
     <col min="9" max="9" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
@@ -991,7 +1002,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="22"/>
@@ -1002,7 +1013,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -1057,8 +1068,11 @@
       <c r="R3" s="26">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="38.25">
+      <c r="S3" s="26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="21" t="s">
         <v>41</v>
       </c>
@@ -1113,8 +1127,11 @@
       <c r="R4" s="33">
         <v>9090.7000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="33">
+        <v>10444.200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="28" t="s">
         <v>23</v>
       </c>
@@ -1169,8 +1186,11 @@
       <c r="R5" s="35">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="35">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
@@ -1225,8 +1245,11 @@
       <c r="R6" s="35">
         <v>7066.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="35">
+        <v>7361.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
@@ -1281,8 +1304,11 @@
       <c r="R7" s="35">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="35">
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
@@ -1337,8 +1363,11 @@
       <c r="R8" s="35">
         <v>787</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="35">
+        <v>844.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="28" t="s">
         <v>34</v>
       </c>
@@ -1393,8 +1422,9 @@
       <c r="R9" s="35">
         <v>1090</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="S9" s="35"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>43</v>
       </c>
@@ -1449,8 +1479,11 @@
       <c r="R10" s="36">
         <v>2620.1999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1">
+      <c r="S10" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
@@ -1505,8 +1538,11 @@
       <c r="R11" s="38">
         <v>1003.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1">
+      <c r="S11" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -1561,8 +1597,11 @@
       <c r="R12" s="38">
         <v>1348.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1">
+      <c r="S12" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1617,8 +1656,11 @@
       <c r="R13" s="38">
         <v>248</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1">
+      <c r="S13" s="38">
+        <v>273.39999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
@@ -1673,8 +1715,11 @@
       <c r="R14" s="40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="S14" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1729,8 +1774,11 @@
       <c r="R15" s="42">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="42">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>

--- a/excel_files/9.1.2.xlsx
+++ b/excel_files/9.1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Воздушный транспорт, тыс. тонн</t>
   </si>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,6 +646,9 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -971,21 +974,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="1" max="3" width="35.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
@@ -1002,7 +1001,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="22"/>
@@ -1013,7 +1012,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -1071,15 +1070,18 @@
       <c r="S3" s="26">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="38.25">
-      <c r="A4" s="21" t="s">
+      <c r="T3" s="26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="41.25" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="43" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="27">
@@ -1130,8 +1132,11 @@
       <c r="S4" s="33">
         <v>10444.200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="33">
+        <v>11350.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="28" t="s">
         <v>23</v>
       </c>
@@ -1189,8 +1194,11 @@
       <c r="S5" s="35">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="35">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
@@ -1248,8 +1256,11 @@
       <c r="S6" s="35">
         <v>7361.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="35">
+        <v>7996.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
@@ -1307,8 +1318,11 @@
       <c r="S7" s="35">
         <v>143.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="35">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
@@ -1366,8 +1380,11 @@
       <c r="S8" s="35">
         <v>844.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="35">
+        <v>1060.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="28" t="s">
         <v>34</v>
       </c>
@@ -1423,8 +1440,11 @@
         <v>1090</v>
       </c>
       <c r="S9" s="35"/>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="T9" s="35">
+        <v>2126.6999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>43</v>
       </c>
@@ -1482,8 +1502,11 @@
       <c r="S10" s="36" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1">
+      <c r="T10" s="36">
+        <v>2985.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
@@ -1541,8 +1564,11 @@
       <c r="S11" s="38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1">
+      <c r="T11" s="38">
+        <v>1085.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -1600,8 +1626,11 @@
       <c r="S12" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1">
+      <c r="T12" s="38">
+        <v>1403.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1659,8 +1688,11 @@
       <c r="S13" s="38">
         <v>273.39999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1">
+      <c r="T13" s="38">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
@@ -1718,8 +1750,11 @@
       <c r="S14" s="40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T14" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1777,8 +1812,11 @@
       <c r="S15" s="42">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="42">
+        <v>231.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
